--- a/plantillaHPV/casosExito.xlsx
+++ b/plantillaHPV/casosExito.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Buitrago\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HPV2018\plantillaHPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -680,20 +680,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190013</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>118181</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -712,8 +712,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609850" y="57150"/>
-          <a:ext cx="7571888" cy="823031"/>
+          <a:off x="1533525" y="47625"/>
+          <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1053,32 +1053,32 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="3.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.375" style="2"/>
+    <col min="32" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1248,11 +1248,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.375" style="7"/>
+    <col min="2" max="2" width="109.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1353,11 +1353,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.375" style="7"/>
+    <col min="2" max="2" width="109.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1457,11 +1457,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.375" style="7"/>
+    <col min="2" max="2" width="109.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1561,11 +1561,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.375" style="7"/>
+    <col min="2" max="2" width="109.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">

--- a/plantillaHPV/casosExito.xlsx
+++ b/plantillaHPV/casosExito.xlsx
@@ -681,19 +681,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -712,7 +712,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1533525" y="47625"/>
+          <a:off x="1562100" y="0"/>
           <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
